--- a/Sample/sampledata.xlsx
+++ b/Sample/sampledata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FDEE3C-3EFC-4DAF-A2C9-1980532CE1B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67B5130-5C8A-4014-93E7-10EEE5397127}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -628,6 +628,96 @@
       <c r="B21">
         <f t="shared" si="0"/>
         <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:B32" si="1">A22*A22</f>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>529</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>676</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>729</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>784</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>841</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>900</v>
       </c>
     </row>
   </sheetData>
@@ -696,7 +786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8FD83B-CD1B-490B-8D87-19D889494486}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
